--- a/output/KAPITALO_29726133000121.xlsx
+++ b/output/KAPITALO_29726133000121.xlsx
@@ -735,10 +735,10 @@
         <v>44165</v>
       </c>
       <c r="B32">
-        <v>0.2466519</v>
+        <v>0.2433407999999999</v>
       </c>
       <c r="C32">
-        <v>0.0333345517984005</v>
+        <v>0.03059002140105416</v>
       </c>
     </row>
   </sheetData>

--- a/output/KAPITALO_29726133000121.xlsx
+++ b/output/KAPITALO_29726133000121.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KAPITALO K10 FUNDO DE INVESTIMENTO EM QUOTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,359 +383,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43251</v>
       </c>
       <c r="B2">
-        <v>-0.0403675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43281</v>
       </c>
       <c r="B3">
-        <v>-0.0383154</v>
-      </c>
-      <c r="C3">
         <v>0.002138422781637672</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43312</v>
       </c>
       <c r="B4">
-        <v>-0.02707340000000003</v>
-      </c>
-      <c r="C4">
         <v>0.01168990332173347</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43343</v>
       </c>
       <c r="B5">
-        <v>-0.005058200000000013</v>
-      </c>
-      <c r="C5">
         <v>0.02262781179998585</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43373</v>
       </c>
       <c r="B6">
-        <v>0.008215499999999931</v>
-      </c>
-      <c r="C6">
         <v>0.01334118236865711</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43404</v>
       </c>
       <c r="B7">
-        <v>0.02374209999999999</v>
-      </c>
-      <c r="C7">
         <v>0.01540008063752252</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43434</v>
       </c>
       <c r="B8">
-        <v>0.02376</v>
-      </c>
-      <c r="C8">
         <v>1.748487241082231e-05</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43465</v>
       </c>
       <c r="B9">
-        <v>0.001668599999999909</v>
-      </c>
-      <c r="C9">
         <v>-0.02157869031804338</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43496</v>
       </c>
       <c r="B10">
-        <v>0.05484299999999998</v>
-      </c>
-      <c r="C10">
         <v>0.05308582099908099</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43524</v>
       </c>
       <c r="B11">
-        <v>0.05477679999999996</v>
-      </c>
-      <c r="C11">
         <v>-6.275815453105071e-05</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43555</v>
       </c>
       <c r="B12">
-        <v>0.06105819999999995</v>
-      </c>
-      <c r="C12">
         <v>0.005955193553745186</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43585</v>
       </c>
       <c r="B13">
-        <v>0.07300419999999996</v>
-      </c>
-      <c r="C13">
         <v>0.01125857186721713</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43616</v>
       </c>
       <c r="B14">
-        <v>0.08244380000000007</v>
-      </c>
-      <c r="C14">
         <v>0.00879735605881149</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43646</v>
       </c>
       <c r="B15">
-        <v>0.1056349000000001</v>
-      </c>
-      <c r="C15">
         <v>0.02142476126705151</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43677</v>
       </c>
       <c r="B16">
-        <v>0.1069818</v>
-      </c>
-      <c r="C16">
         <v>0.001218214077721269</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43708</v>
       </c>
       <c r="B17">
-        <v>0.07964250000000006</v>
-      </c>
-      <c r="C17">
         <v>-0.02469715400921668</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43738</v>
       </c>
       <c r="B18">
-        <v>0.09142899999999998</v>
-      </c>
-      <c r="C18">
         <v>0.01091703966822344</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43769</v>
       </c>
       <c r="B19">
-        <v>0.1049986999999999</v>
-      </c>
-      <c r="C19">
         <v>0.01243296632213364</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43799</v>
       </c>
       <c r="B20">
-        <v>0.1111141</v>
-      </c>
-      <c r="C20">
         <v>0.0055343051534813</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43830</v>
       </c>
       <c r="B21">
-        <v>0.1409058000000001</v>
-      </c>
-      <c r="C21">
         <v>0.02681245787448838</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43861</v>
       </c>
       <c r="B22">
-        <v>0.1168122</v>
-      </c>
-      <c r="C22">
         <v>-0.02111795732829125</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43890</v>
       </c>
       <c r="B23">
-        <v>0.0984328000000001</v>
-      </c>
-      <c r="C23">
         <v>-0.01645701936278987</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43921</v>
       </c>
       <c r="B24">
-        <v>0.1051112999999999</v>
-      </c>
-      <c r="C24">
         <v>0.006080026015246265</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43951</v>
       </c>
       <c r="B25">
-        <v>0.1716953000000001</v>
-      </c>
-      <c r="C25">
         <v>0.06025094485958138</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43982</v>
       </c>
       <c r="B26">
-        <v>0.1933868999999999</v>
-      </c>
-      <c r="C26">
         <v>0.01851300419144786</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44012</v>
       </c>
       <c r="B27">
-        <v>0.1766034999999999</v>
-      </c>
-      <c r="C27">
         <v>-0.01406367038217027</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44043</v>
       </c>
       <c r="B28">
-        <v>0.2151483000000001</v>
-      </c>
-      <c r="C28">
         <v>0.03275937900915649</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44074</v>
       </c>
       <c r="B29">
-        <v>0.2146311999999999</v>
-      </c>
-      <c r="C29">
         <v>-0.0004255447668405354</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44104</v>
       </c>
       <c r="B30">
-        <v>0.2050867999999999</v>
-      </c>
-      <c r="C30">
         <v>-0.007857858418259034</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44135</v>
       </c>
       <c r="B31">
-        <v>0.2064359</v>
-      </c>
-      <c r="C31">
         <v>0.001119504420760586</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44165</v>
       </c>
       <c r="B32">
-        <v>0.2433407999999999</v>
-      </c>
-      <c r="C32">
-        <v>0.03059002140105416</v>
+        <v>0.02783562723887778</v>
       </c>
     </row>
   </sheetData>
